--- a/проектирование бд/ПР2/Лист Microsoft Excel.xlsx
+++ b/проектирование бд/ПР2/Лист Microsoft Excel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457F896-36D0-47ED-A441-46D2441A2BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,6 +16,14 @@
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
     <sheet name="Лист7" sheetId="7" r:id="rId7"/>
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
+    <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист11" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист12" sheetId="12" r:id="rId12"/>
+    <sheet name="Лист13" sheetId="13" r:id="rId13"/>
+    <sheet name="Лист14" sheetId="14" r:id="rId14"/>
+    <sheet name="Лист15" sheetId="15" r:id="rId15"/>
+    <sheet name="Лист16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="109">
   <si>
     <t>CustomerID</t>
   </si>
@@ -233,12 +242,132 @@
   </si>
   <si>
     <t xml:space="preserve">Суп - 1 порция, Десерт - 2 порции   </t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>DishName</t>
+  </si>
+  <si>
+    <t>Portions</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
+  </si>
+  <si>
+    <t>Наталья Орлова</t>
+  </si>
+  <si>
+    <t>Паста</t>
+  </si>
+  <si>
+    <t>Салат</t>
+  </si>
+  <si>
+    <t>Алексей Смирнов</t>
+  </si>
+  <si>
+    <t>Пицца</t>
+  </si>
+  <si>
+    <t>Суп</t>
+  </si>
+  <si>
+    <t>Десерт</t>
+  </si>
+  <si>
+    <t>DishID</t>
+  </si>
+  <si>
+    <t>LoanID</t>
+  </si>
+  <si>
+    <t>MemberName</t>
+  </si>
+  <si>
+    <t>BookTitle</t>
+  </si>
+  <si>
+    <t>Copies</t>
+  </si>
+  <si>
+    <t>TotalBooks</t>
+  </si>
+  <si>
+    <t>Виктория Соколова</t>
+  </si>
+  <si>
+    <t>Книга1</t>
+  </si>
+  <si>
+    <t>Книга2</t>
+  </si>
+  <si>
+    <t>Андрей Попов</t>
+  </si>
+  <si>
+    <t>Книга3</t>
+  </si>
+  <si>
+    <t>Книга4</t>
+  </si>
+  <si>
+    <t>MemberID</t>
+  </si>
+  <si>
+    <t>BookID</t>
+  </si>
+  <si>
+    <t>AvailableCopies</t>
+  </si>
+  <si>
+    <t>RecordID</t>
+  </si>
+  <si>
+    <t>PatientName</t>
+  </si>
+  <si>
+    <t>TreatmentName</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Игорь Сидоров</t>
+  </si>
+  <si>
+    <t>Терапия</t>
+  </si>
+  <si>
+    <t>Массаж</t>
+  </si>
+  <si>
+    <t>Мария Ковалева</t>
+  </si>
+  <si>
+    <t>Консультация</t>
+  </si>
+  <si>
+    <t>Лечение</t>
+  </si>
+  <si>
+    <t>УЗИ</t>
+  </si>
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>TreatmentID</t>
+  </si>
+  <si>
+    <t>PricePerSession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,25 +686,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -657,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -698,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>3</v>
       </c>
@@ -727,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>4</v>
       </c>
@@ -750,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>5</v>
       </c>
@@ -764,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M7">
         <v>6</v>
       </c>
@@ -784,23 +913,1143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DEEFB-8545-4B4F-9A70-B432B6F0BB1F}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>700</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4">
+        <v>700</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86076F6B-D574-4DBF-B71C-03924C29FE8C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DED496-DF3D-46C0-BDF0-111535A67B57}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5054B0FE-8940-492C-951C-4040CEEEF919}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5852DD-8039-4325-84CE-D59DD165398E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF405456-F372-4CF5-8B4E-8EB39A2057A5}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1500</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4500</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC02BD-384F-4D96-A817-E02D3C41808F}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1500</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4500</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5">
+        <v>1500</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -814,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -828,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -842,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -856,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -873,7 +2122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -890,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -907,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -924,7 +2173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -941,7 +2190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -964,21 +2213,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +2250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1024,7 +2273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1047,7 +2296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1070,7 +2319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +2333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>38</v>
       </c>
@@ -1104,26 +2353,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1149,7 +2398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1175,7 +2424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1201,7 +2450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1227,7 +2476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>104</v>
       </c>
@@ -1247,7 +2496,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>105</v>
       </c>
@@ -1273,23 +2522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1306,7 +2555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1323,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1340,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1357,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1374,7 +2623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1397,30 +2646,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +2707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1496,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1534,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>303</v>
       </c>
@@ -1566,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>404</v>
       </c>
@@ -1589,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>5</v>
       </c>
@@ -1609,29 +2858,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1666,7 +2915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1701,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1736,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>303</v>
       </c>
@@ -1765,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>404</v>
       </c>
@@ -1788,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L6">
         <v>5</v>
       </c>
@@ -1808,22 +3057,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1837,7 +3086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1851,7 +3100,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1865,7 +3114,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1877,6 +3126,247 @@
       </c>
       <c r="D4">
         <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92C9D54-D7D3-43DC-B09C-A0A82C52CF9A}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>700</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
